--- a/reference/loa/transport/raw/3-ltl-veteran-reguler.xlsx
+++ b/reference/loa/transport/raw/3-ltl-veteran-reguler.xlsx
@@ -712,7 +712,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>37</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
@@ -1863,8 +1863,8 @@
       <c r="B40" s="1">
         <v>0</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>5</v>
+      <c r="C40" t="s">
+        <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>43</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
         <v>44</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
         <v>46</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
         <v>47</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
         <v>49</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
         <v>51</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
         <v>52</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
         <v>53</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
         <v>54</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
         <v>56</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
         <v>57</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
         <v>58</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D56" t="s">
         <v>59</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
         <v>60</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D58" t="s">
         <v>61</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D59" t="s">
         <v>62</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
         <v>63</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
         <v>64</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
         <v>65</v>
@@ -2530,8 +2530,8 @@
       <c r="B63" s="1">
         <v>0</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>5</v>
+      <c r="C63" t="s">
+        <v>43</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>66</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s">
         <v>67</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s">
         <v>69</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D68" t="s">
         <v>71</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D69" t="s">
         <v>72</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
@@ -2762,8 +2762,8 @@
       <c r="B71" s="1">
         <v>0</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>5</v>
+      <c r="C71" t="s">
+        <v>43</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>74</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
         <v>75</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s">
         <v>76</v>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s">
         <v>77</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D75" t="s">
         <v>78</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s">
         <v>79</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
         <v>80</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D78" t="s">
         <v>81</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D79" t="s">
         <v>82</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D80" t="s">
         <v>83</v>
@@ -3052,8 +3052,8 @@
       <c r="B81" s="1">
         <v>0</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>5</v>
+      <c r="C81" t="s">
+        <v>43</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>84</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D82" t="s">
         <v>85</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D83" t="s">
         <v>86</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D84" t="s">
         <v>87</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D85" t="s">
         <v>88</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D86" t="s">
         <v>89</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
         <v>90</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D88" t="s">
         <v>91</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D89" t="s">
         <v>92</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D90" t="s">
         <v>93</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D91" t="s">
         <v>94</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D92" t="s">
         <v>95</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
         <v>96</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
         <v>97</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
         <v>98</v>
@@ -3487,8 +3487,8 @@
       <c r="B96" s="1">
         <v>0</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>5</v>
+      <c r="C96" t="s">
+        <v>43</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>99</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D97" t="s">
         <v>100</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D98" t="s">
         <v>101</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D99" t="s">
         <v>102</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D100" t="s">
         <v>103</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D101" t="s">
         <v>104</v>
@@ -3661,8 +3661,8 @@
       <c r="B102" s="1">
         <v>0</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>5</v>
+      <c r="C102" t="s">
+        <v>43</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>105</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D103" t="s">
         <v>106</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D104" t="s">
         <v>107</v>
